--- a/data/dividends_info_20260204.xlsx
+++ b/data/dividends_info_20260204.xlsx
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6.072000026702881</v>
+        <v>6.127999782562256</v>
       </c>
       <c r="I2" t="n">
-        <v>3.129117245791099</v>
+        <v>3.100522303226269</v>
       </c>
       <c r="J2" t="n">
         <v>103</v>
@@ -575,10 +575,10 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>19.70000076293945</v>
+        <v>19.89999961853027</v>
       </c>
       <c r="I3" t="n">
-        <v>3.807106451543568</v>
+        <v>3.768844293351759</v>
       </c>
       <c r="J3" t="n">
         <v>89</v>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>23.48999977111816</v>
+        <v>24.33499908447266</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3831417661853636</v>
+        <v>0.3698376962644965</v>
       </c>
       <c r="J4" t="n">
         <v>47</v>
@@ -716,10 +716,10 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1.820000052452087</v>
+        <v>1.830000042915344</v>
       </c>
       <c r="I6" t="n">
-        <v>3.296703201692877</v>
+        <v>3.278688447701616</v>
       </c>
       <c r="J6" t="n">
         <v>5</v>
@@ -763,10 +763,10 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.2290000021457672</v>
+        <v>0.2300000041723251</v>
       </c>
       <c r="I7" t="n">
-        <v>26.20087311693898</v>
+        <v>26.08695604850755</v>
       </c>
       <c r="J7" t="n">
         <v>-2</v>
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9.409999847412109</v>
+        <v>9.529000282287598</v>
       </c>
       <c r="I8" t="n">
-        <v>2.444208328688267</v>
+        <v>2.413684470421535</v>
       </c>
       <c r="J8" t="n">
         <v>-16</v>
@@ -857,10 +857,10 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5.796000003814697</v>
+        <v>5.938000202178955</v>
       </c>
       <c r="I9" t="n">
-        <v>2.084195995867741</v>
+        <v>2.03435493241769</v>
       </c>
       <c r="J9" t="n">
         <v>-16</v>
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>24.95000076293945</v>
+        <v>25</v>
       </c>
       <c r="I10" t="n">
-        <v>2.88577145484293</v>
+        <v>2.88</v>
       </c>
       <c r="J10" t="n">
         <v>-26</v>
@@ -2536,7 +2536,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Datrix S.p.A.</t>
+          <t>Eni S.p.A.</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2553,7 +2553,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Eni S.p.A.</t>
+          <t>Datrix S.p.A.</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2587,7 +2587,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Pozzi Milano S.p.A.</t>
+          <t>Poste Italiane S.p.A.</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -2672,7 +2672,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>OSAI Automation System S.p.A.</t>
+          <t>Pozzi Milano S.p.A.</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2682,14 +2682,14 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Annual General Meeting</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Poste Italiane S.p.A.</t>
+          <t>OSAI Automation System S.p.A.</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2699,14 +2699,14 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual General Meeting</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Intesa Sanpaolo S.p.A.</t>
+          <t>Esprinet S.p.A.</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2716,14 +2716,14 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>IGD SIIQ S.p.A.</t>
+          <t>Intesa Sanpaolo S.p.A.</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2740,7 +2740,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>I.CO.P. S.p.A. Società Benefit</t>
+          <t>IGD SIIQ S.p.A.</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2757,7 +2757,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Eni S.p.A.</t>
+          <t>I.CO.P. S.p.A. Società Benefit</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2767,14 +2767,14 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Dedem S.p.A.</t>
+          <t>Eni S.p.A.</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2784,14 +2784,14 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>JUVENTUS F.C. S.p.A.</t>
+          <t>Dedem S.p.A.</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2801,14 +2801,14 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Half Year Report</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Esprinet S.p.A.</t>
+          <t>JUVENTUS F.C. S.p.A.</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2818,14 +2818,14 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Half Year Report</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Autostrade Meridionali S.p.A.</t>
+          <t>SOGEFI S.p.A.</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2842,7 +2842,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>TXT E-SOLUTIONS S.p.A.</t>
+          <t>Autostrade Meridionali S.p.A.</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2852,14 +2852,14 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>SOGEFI S.p.A.</t>
+          <t>I GRANDI VIAGGI S.p.A.</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2869,14 +2869,14 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual General Meeting</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Reti S.p.A.</t>
+          <t>OSAI Automation System S.p.A.</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2886,7 +2886,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual General Meeting</t>
         </is>
       </c>
     </row>
@@ -2910,7 +2910,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>OSAI Automation System S.p.A.</t>
+          <t>Reti S.p.A.</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -2920,14 +2920,14 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Annual General Meeting</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>I GRANDI VIAGGI S.p.A.</t>
+          <t>TXT E-SOLUTIONS S.p.A.</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Annual General Meeting</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
@@ -2961,7 +2961,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Lottomatica Group S.p.A.</t>
+          <t>Anima Holding S.p.A.</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -2978,7 +2978,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Anima Holding S.p.A.</t>
+          <t>Lottomatica Group S.p.A.</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -2995,7 +2995,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Ariston Holding N.V.</t>
+          <t>Lottomatica Group S.p.A.</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3005,14 +3005,14 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Banco BPM S.p.A.</t>
+          <t>Italgas S.p.A.</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3046,7 +3046,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Italgas S.p.A.</t>
+          <t>Banco BPM S.p.A.</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3063,7 +3063,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Kruso Kapital S.p.A.</t>
+          <t>Ariston Holding N.V.</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3073,14 +3073,14 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Lottomatica Group S.p.A.</t>
+          <t>Ariston Holding N.V.</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3090,14 +3090,14 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Ariston Holding N.V.</t>
+          <t>Kruso Kapital S.p.A.</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3107,14 +3107,14 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>AMPLIFON S.p.A.</t>
+          <t>MAIRE S.p.A.</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3124,14 +3124,14 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>AMPLIFON S.p.A.</t>
+          <t>Snam S.p.A.</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3141,14 +3141,14 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>FinecoBank S.p.A.</t>
+          <t>MAIRE S.p.A.</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3158,14 +3158,14 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Snam S.p.A.</t>
+          <t>AMPLIFON S.p.A.</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3175,14 +3175,14 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>INTERCOS S.p.A.</t>
+          <t>AMPLIFON S.p.A.</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3192,14 +3192,14 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Italgas S.p.A.</t>
+          <t>Davide Campari-Milano N.V.</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3216,7 +3216,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>MAIRE S.p.A.</t>
+          <t>Davide Campari-Milano N.V.</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -3233,7 +3233,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>MAIRE S.p.A.</t>
+          <t>Banca Generali S.p.A.</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -3243,14 +3243,14 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Masi Agricola S.p.A.</t>
+          <t>INTERCOS S.p.A.</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3267,7 +3267,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Nexi S.p.A.</t>
+          <t>INTERCOS S.p.A.</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -3277,14 +3277,14 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Davide Campari-Milano N.V.</t>
+          <t>Italgas S.p.A.</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -3294,14 +3294,14 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Banca Generali S.p.A.</t>
+          <t>Nexi S.p.A.</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -3318,7 +3318,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>INTERCOS S.p.A.</t>
+          <t>Masi Agricola S.p.A.</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -3335,7 +3335,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Davide Campari-Milano N.V.</t>
+          <t>FinecoBank S.p.A.</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -3352,7 +3352,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Mediobanca Banca di Credito Finanziario S.p.A.</t>
+          <t>Snam S.p.A.</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -3362,7 +3362,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -3386,7 +3386,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ITALMOBILIARE S.p.A.</t>
+          <t>PIAGGIO &amp; C. S.p.A.</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3420,7 +3420,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Snam S.p.A.</t>
+          <t>Mediobanca Banca di Credito Finanziario S.p.A.</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3430,14 +3430,14 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Generalfinance S.p.A.</t>
+          <t>AZIMUT HOLDING S.p.A.</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3454,7 +3454,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>EUROCOMMERCIAL PROPERTIES N.V.</t>
+          <t>Generalfinance S.p.A.</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3464,14 +3464,14 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>AZIMUT HOLDING S.p.A.</t>
+          <t>EUROCOMMERCIAL PROPERTIES N.V.</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
@@ -3522,7 +3522,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>PIAGGIO &amp; C. S.p.A.</t>
+          <t>ITALMOBILIARE S.p.A.</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -3616,83 +3616,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Stock</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Adventure S.p.A.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2026-02-04</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>BANCA SISTEMA S.p.A.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2026-03-06</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>BEEWIZE</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2026-03-06</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>